--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +537,40 @@
         <v>1.189399</v>
       </c>
       <c r="I2">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J2">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5010136666666667</v>
+        <v>1.238415</v>
       </c>
       <c r="N2">
-        <v>1.503041</v>
+        <v>3.715245</v>
       </c>
       <c r="O2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q2">
-        <v>0.1986350513732222</v>
+        <v>0.490989854195</v>
       </c>
       <c r="R2">
-        <v>1.787715462359</v>
+        <v>4.418908687755</v>
       </c>
       <c r="S2">
-        <v>0.195109235999419</v>
+        <v>0.2688759477749548</v>
       </c>
       <c r="T2">
-        <v>0.195109235999419</v>
+        <v>0.2688759477749547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,45 +599,45 @@
         <v>1.189399</v>
       </c>
       <c r="I3">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J3">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.238415</v>
+        <v>1.602242</v>
       </c>
       <c r="N3">
-        <v>3.715245</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O3">
-        <v>0.5866446172313401</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P3">
-        <v>0.58664461723134</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q3">
-        <v>0.490989854195</v>
+        <v>0.6352350108526665</v>
       </c>
       <c r="R3">
-        <v>4.418908687755</v>
+        <v>5.717115097673998</v>
       </c>
       <c r="S3">
-        <v>0.4822746774709816</v>
+        <v>0.3478675050890364</v>
       </c>
       <c r="T3">
-        <v>0.4822746774709815</v>
+        <v>0.3478675050890364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3964663333333333</v>
+        <v>0.246372</v>
       </c>
       <c r="H4">
-        <v>1.189399</v>
+        <v>0.739116</v>
       </c>
       <c r="I4">
-        <v>0.8220900069740165</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="J4">
-        <v>0.8220900069740164</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3715853333333333</v>
+        <v>1.238415</v>
       </c>
       <c r="N4">
-        <v>1.114756</v>
+        <v>3.715245</v>
       </c>
       <c r="O4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q4">
-        <v>0.1473210746271111</v>
+        <v>0.30511078038</v>
       </c>
       <c r="R4">
-        <v>1.325889671644</v>
+        <v>2.74599702342</v>
       </c>
       <c r="S4">
-        <v>0.1447060935036159</v>
+        <v>0.1670848176395251</v>
       </c>
       <c r="T4">
-        <v>0.1447060935036159</v>
+        <v>0.1670848176395251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,179 +708,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.0858</v>
+        <v>0.246372</v>
       </c>
       <c r="H5">
-        <v>0.2574</v>
+        <v>0.739116</v>
       </c>
       <c r="I5">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="J5">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5010136666666667</v>
+        <v>1.602242</v>
       </c>
       <c r="N5">
-        <v>1.503041</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q5">
-        <v>0.0429869726</v>
+        <v>0.394747566024</v>
       </c>
       <c r="R5">
-        <v>0.3868827534000001</v>
+        <v>3.552728094216</v>
       </c>
       <c r="S5">
-        <v>0.04222394448477799</v>
+        <v>0.2161717294964837</v>
       </c>
       <c r="T5">
-        <v>0.04222394448477799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.0858</v>
-      </c>
-      <c r="H6">
-        <v>0.2574</v>
-      </c>
-      <c r="I6">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="J6">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.238415</v>
-      </c>
-      <c r="N6">
-        <v>3.715245</v>
-      </c>
-      <c r="O6">
-        <v>0.5866446172313401</v>
-      </c>
-      <c r="P6">
-        <v>0.58664461723134</v>
-      </c>
-      <c r="Q6">
-        <v>0.106256007</v>
-      </c>
-      <c r="R6">
-        <v>0.9563040630000001</v>
-      </c>
-      <c r="S6">
-        <v>0.1043699397603585</v>
-      </c>
-      <c r="T6">
-        <v>0.1043699397603585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.0858</v>
-      </c>
-      <c r="H7">
-        <v>0.2574</v>
-      </c>
-      <c r="I7">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="J7">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3715853333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.114756</v>
-      </c>
-      <c r="O7">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="P7">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="Q7">
-        <v>0.0318820216</v>
-      </c>
-      <c r="R7">
-        <v>0.2869381944</v>
-      </c>
-      <c r="S7">
-        <v>0.03131610878084708</v>
-      </c>
-      <c r="T7">
-        <v>0.03131610878084708</v>
+        <v>0.2161717294964837</v>
       </c>
     </row>
   </sheetData>
